--- a/cotizaciones/Cuadro-de-Cotizaciones.xlsx
+++ b/cotizaciones/Cuadro-de-Cotizaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwinmarin/Downloads/MATRIZ  2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{B4756B40-919D-554D-BB35-0B11BEE86390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDB42FE-FC7D-4AFB-8680-A69131D8B02D}"/>
+  <xr:revisionPtr revIDLastSave="909" documentId="8_{B4756B40-919D-554D-BB35-0B11BEE86390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54B97BD-B196-4A92-82C3-115EB39017DF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Torre admin" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="167">
   <si>
     <t>CUADRO DE COTIZACIONES</t>
   </si>
@@ -500,6 +500,15 @@
     <t>Disco duro interno Western Digital WD Black WD10SPSX 1TB</t>
   </si>
   <si>
+    <t>Tauret</t>
+  </si>
+  <si>
+    <t>https://www.tauretcomputadores.com/product/disco-duro-pc-western-digital-10tb-purple-pro-dvr</t>
+  </si>
+  <si>
+    <t>Disco Duro PC Western Digital 10TB Purple Pro (DVR)</t>
+  </si>
+  <si>
     <t>Systestore</t>
   </si>
   <si>
@@ -544,6 +553,30 @@
 3200mt/s  Cl16</t>
   </si>
   <si>
+    <t>https://www.mercadolibre.com.co/memoria-ram-gamer-portatil-ddr4-2666mhz-color-verde-16gb-crucial-ct16g4sfd8266/p/MCO11903925?pdp_filters=category:MCO1694#searchVariation=MCO11903925&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=86b0cae9-af6e-49a0-bd5c-7b0ea4866441</t>
+  </si>
+  <si>
+    <t>Memoria RAM gamer Portatil DDR4 2666MHz color verde 16GB Crucial CT16G4SFD8266</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/memorias-ram/memoria-ram-para-pc-ddr4-8g-3200-corsair-vengeance-lpx/</t>
+  </si>
+  <si>
+    <t>MEMORIA RAM PARA PC DDR4 8G 3200 CORSAIR VENGEANCE LPX</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/teclados/teclado-gamer-redragon-k622-horus-tkl-rgb-sp-red-negro/</t>
+  </si>
+  <si>
+    <t>TECLADO GAMER REDRAGON K622 HORUS TKL RGB SP-RED NEGRO</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/teclado-mecanico-gamer-unitec-mk20-retroiluminado-color-del-teclado-plateado/p/MCO23026811?pdp_filters=item_id:MCO1366192149#is_advertising=true&amp;searchVariation=MCO23026811&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=c80e825b-739a-462e-be88-04f51edfa8ed&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=MjM4OGRjYjUtZTAyYy00NmEyLWJmNDgtM2RjNTI1YjE5ZDFk</t>
+  </si>
+  <si>
+    <t>Teclado Mecánico Gamer Unitec Mk20 Retroiluminado Color del teclado Plateado</t>
+  </si>
+  <si>
     <t>Panamericana</t>
   </si>
   <si>
@@ -576,25 +609,295 @@
     </r>
   </si>
   <si>
+    <t>Temu</t>
+  </si>
+  <si>
+    <t>https://www.temu.com/search_result.html?search_key=mouse&amp;search_method=user&amp;refer_page_el_sn=200010&amp;srch_enter_source=top_search_entrance_10005&amp;_x_vst_scene=adg&amp;_x_ads_channel=google&amp;_x_ads_sub_channel=search&amp;_x_ads_account=1204871858&amp;_x_ads_set=21104778154&amp;_x_ads_id=161509618962&amp;_x_ads_creative_id=693748223408&amp;_x_ns_source=g&amp;_x_ns_gclid=EAIaIQobChMI59ay097vhQMVaaJaBR29rgP6EAAYASAAEgLpxfD_BwE&amp;_x_ns_placement=&amp;_x_ns_match_type=e&amp;_x_ns_ad_position=&amp;_x_ns_product_id=&amp;_x_ns_target=&amp;_x_ns_devicemodel=&amp;_x_ns_wbraid=Cj8KCQjw0MexBhDJARIuACLh4fQXWrTFHlFHqhyx6o7yj2g9RDsRWxG8mOvNdUUcI1B0zZtBdn6Q6tV-jRoCd78&amp;_x_ns_gbraid=0AAAAAo4mICFS4MFJBJKGHBi7R2nVgkWW5&amp;_x_ns_keyword=temu&amp;_x_ns_targetid=kwd-4583699489&amp;_x_ns_extensionid=&amp;refer_page_name=home&amp;refer_page_id=10005_1714679444922_2z9u4p9rtp&amp;refer_page_sn=10005&amp;_x_sessn_id=6kux8a4x4m&amp;is_back=1</t>
+  </si>
+  <si>
+    <t>Ratón con cable USB Botones 6D DPI de cuatro velocidades, Diseño ajustable de 6 botones, Adecuado para computadora MAC Computadora PC Computadora portátil Computadora de escritorio, Iluminación colorida RGB - Accesorios periféricos de computadora portátil Plug And Play</t>
+  </si>
+  <si>
+    <t>Mercado Libre</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/mouse-ergonomico-c-18-negro/p/MCO22909078?pdp_filters=item_id:MCO1343370259#is_advertising=true&amp;searchVariation=MCO22909078&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=2348467c-10f9-4ea0-9fe4-4b55812071a0&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZDdhYzYwNGQtYzgwOS00ZmE4LTg3YWUtZmM4NjI3OTFjZTZj</t>
+  </si>
+  <si>
+    <t>Mouse Ergonomico C 18 Negro</t>
+  </si>
+  <si>
+    <t>Speed  Logic</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/diademas/mouse-gamer-logitech-g502-x-lightspeed-inalambrico-blanco/</t>
+  </si>
+  <si>
+    <t>MOUSE GAMER LOGITECH G502 X LIGHTSPEED INALAMBRICO BLANCO</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005006849439730.html?spm=a2g0o.productlist.main.19.6cd255c5ki2Alu&amp;algo_pvid=f8cce292-11c9-4d21-aa74-d8b434ef7042&amp;algo_exp_id=f8cce292-11c9-4d21-aa74-d8b434ef7042-9&amp;pdp_npi=4%40dis%21COP%214144543.57%212056237.46%21%21%211035.21%21513.60%21%402101c72a17146801201485387e9693%2112000038524345996%21sea%21CO%210%21AB&amp;curPageLogUid=TNn8u2kIwobx&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>Ordenador portátil i7 1165G7 NVIDIA MX450 32G DDR4 2TB SSD 15,6 pulgadas 11. ª generación Gaming Laptop Core Win11 Pro 1920x1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado LIbre </t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/portatil-asus-vivobook-x1502za-i5-12gen-16gb-512ssd-156-fhd/p/MCO21628988?pdp_filters=item_id:MCO1288170272#is_advertising=true&amp;searchVariation=MCO21628988&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=8ed7d3af-78f5-4bd3-9fe4-63251c8b1e62&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=NDM3MDkwOTUtZmY1OC00ZjgyLTg1YzMtNDE5MjQ4MjQxMDk5</t>
+  </si>
+  <si>
+    <t>Portátil Asus Vivobook X1502za I5 12gen 16gb 512ssd 15,6 Fhd</t>
+  </si>
+  <si>
+    <t>Speed Logic</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/portatiles-gamer/portatil-msi-vector-16-hxa13vhg-489co-core-i9-13980hx-16gb-d5-nvme-1tb-12g-rtx-4080-166-fhd-144hz-windows-11-home-negro/</t>
+  </si>
+  <si>
+    <t>PORTATIL MSI VECTOR 16 HXA13VHG-489CO CORE i9 13980HX-16GB D5-NVMe 1TB-12G RTX-4080-16,6″ FHD 144Hz WINDOWS 11 HOME NEGRO</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005006270659459.html?spm=a2g0o.productlist.main.5.4abeyOtDyOtD2s&amp;algo_pvid=1a04faee-5d21-4961-8aea-903a0f1ca756&amp;algo_exp_id=1a04faee-5d21-4961-8aea-903a0f1ca756-2&amp;pdp_npi=4%40dis%21COP%2177386.26%2157265.83%21%21%21140.00%21103.60%21%402103244417146805508891151ec7fe%2112000037690706833%21sea%21CO%210%21AB&amp;curPageLogUid=C8N0yhESKPP3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>Monitores curvos de 24 pulgadas para juegos de PC, monitor LCD de 1920x1080p para portátiles, HDMI, compatible con pantallas de 165hz</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/monitor-samsung-qhd-de-27-con-panel-ips-y-diseno-ergonomico-color-negro-100v240v/p/MCO24614130?pdp_filters=item_id:MCO1327122527#is_advertising=true&amp;searchVariation=MCO24614130&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=9fc9efef-a1e7-4b40-99eb-1c531455781a&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=M2Y2ZDcwZDMtNDJkYy00NzI5LTg1Y2EtMDFjNjg2NWQyN2Y3</t>
+  </si>
+  <si>
+    <t>Monitor Samsung Qhd De 27 Con Panel Ips Y Diseño Ergonómico Color Negro 100V/240V</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/monitores/monitor-led-acer-27-nitro-curvo-1ms-240hz-gaming-ed270/</t>
+  </si>
+  <si>
+    <t>MONITOR LED ACER 27″ NITRO CURVO 1ms-240Hz GAMING ED270</t>
+  </si>
+  <si>
     <t xml:space="preserve">M </t>
   </si>
   <si>
+    <t>AlIExpress</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005002655221070.html?spm=a2g0o.productlist.main.1.5b6e7a9edYE1Da&amp;algo_pvid=ba95e61b-d2d7-4b32-b6d3-a80b6b87d2c2&amp;algo_exp_id=ba95e61b-d2d7-4b32-b6d3-a80b6b87d2c2-0&amp;pdp_npi=4%40dis%21COP%2188038.67%2158091.91%21%21%2121.99%2114.51%21%402101e64117146811555243039eeaed%2112000021576677780%21sea%21CO%210%21AB&amp;curPageLogUid=zMCC0Kv8TyME&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>Seagate-disco duro mecánico interno para PC de escritorio, dispositivo SATA de 500GB, 3 Gb/s-6 Gb/s, HDD, 500G, 8 MB/32 MB, búfer, 3,5 pulgadas</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/disco-duro-interno-wd-25in-500gb-hdd-sata-iii-open-box/p/MCO21709406?pdp_filters=category:MCO1672#searchVariation=MCO21709406&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b92dc17d-36e0-44ff-bf3b-3e1c6e879eb4</t>
+  </si>
+  <si>
+    <t>Disco Duro Interno Wd 2.5in 500gb Hdd Sata Iii Open Box</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/unidades-ssd/unidad-de-estado-solido-sata-ssd-480gb-kingston-a400/</t>
+  </si>
+  <si>
+    <t>UNIDAD DE ESTADO SOLIDO SATA SSD 480GB KINGSTON A400</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005005745436996.html?spm=a2g0o.productlist.main.23.7439568eya0FDG&amp;algo_pvid=b0a3c163-e82f-46a4-898c-59226f84949e&amp;aem_p4p_detail=202405021327293384211032943000012567548&amp;algo_exp_id=b0a3c163-e82f-46a4-898c-59226f84949e-11&amp;pdp_npi=4%40dis%21COP%21303951.61%21115503.21%21%21%2175.92%2128.85%21%402101c59117146816493924134eb60a%2112000034195319475%21sea%21CO%210%21AB&amp;curPageLogUid=AP32FBQwXIfp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202405021327293384211032943000012567548_3</t>
+  </si>
+  <si>
+    <t>Kllisre RAM DDR4 8GB 16GB Memoria 2666MHz 3200MHz de escritorio Dimm Alta Compatible</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/memoria-ram-samsung-8gb-ddr3-1600mhz-portatil-laptop/p/MCO14924731?pdp_filters=item_id:MCO1541573376#is_advertising=true&amp;searchVariation=MCO14924731&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=8c0538f9-6d6e-4d38-8ee7-499c98d59318&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZjJhNTE0MTgtOGE0MC00NmZmLTkwZjQtNjljZWQ0OTEwM2Vl</t>
+  </si>
+  <si>
+    <t>Memoria Ram Samsung 8gb Ddr3 1600mhz Portatil Laptop</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/memorias-ram/memoria-ram-para-portatil-ddr4-16gb-3200mhz-crucial/</t>
+  </si>
+  <si>
+    <t>MEMORIA RAM PARA PORTATIL DDR4 16GB 3200MHz CRUCIAL</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005004542103749.html?spm=a2g0o.productlist.main.1.3b5e37a1zvbLIJ&amp;algo_pvid=fb8ab4ec-6aa6-470d-8ef3-f25cffed1af4&amp;algo_exp_id=fb8ab4ec-6aa6-470d-8ef3-f25cffed1af4-0&amp;pdp_npi=4%40dis%21COP%2121619319.04%2117295455.23%21%21%215400.00%214320.00%21%402103246417146819683818498e3652%2112000029540850579%21sea%21CO%210%21AB&amp;curPageLogUid=je6gsl7zIwXo&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>Servidor de bastidor 2U Inspur NF5270M5/4210R/16G(ECC)/480G * 2/PM8222/550W/servidor LAN de puerto dual Gigabit</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.co/MCO-2256411732-servidor-dell-power-edge-t40-intel-xeon-35-ghz-8g-1tb-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=2fcd95e5-7bc6-454e-83da-441a7ebcca14</t>
+  </si>
+  <si>
+    <t>Servidor Dell Power Edge T40 Intel Xeon 3.5 Ghz 8g 1tb</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/placas-madre/board-msi-z790-p-pro-wifi-3-gpu-usb-32-4-ddr5-xii-xiii/</t>
+  </si>
+  <si>
+    <t>BOARD MSI Z790-P PRO WiFi 3 GPU USB 3,2 4 DDR5 XII XIII</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005005920833284.html?spm=a2g0o.productlist.main.1.5c472aa9aLougx&amp;algo_pvid=6f2c0531-e7d4-4f85-ac66-7835dfc18826&amp;algo_exp_id=6f2c0531-e7d4-4f85-ac66-7835dfc18826-0&amp;pdp_npi=4%40dis%21COP%21145650.15%2185956.81%21%21%2136.38%2121.47%21%40210324f117146823773384497ef662%2112000034858120240%21sea%21CO%210%21AB&amp;curPageLogUid=kF3FTTw2dpq3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>Tarjeta gráfica GT610 2G para ordenador de escritorio, tarjeta de vídeo PCIE X16 2,0 NVIDIA GeForce GT 610 DDR3, VGA, HD, DVI, 64 bits, 1800MHz, GT610</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/tarjeta-de-video-nvidia-geforce-rtx-30-series-rtx-3090-24gb/p/MCO16071004?pdp_filters=item_id:MCO1336129151#is_advertising=true&amp;searchVariation=MCO16071004&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=b6d7a260-f3d5-4e83-b2f8-757816d9bfeb&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=YWRjODY5Y2ItZTQ2OS00MDZjLWJmOGItNjk4ZmRmNjUyOWRm</t>
+  </si>
+  <si>
+    <t>Tarjeta de video Nvidia GeForce RTX 30 Series RTX 3090 24GB</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/tarjetas-graficas/tarjeta-de-video-amd-radeon-xfx-rx-580-ddr5-oc-gts-xxx-8-gigas/</t>
+  </si>
+  <si>
+    <t>TARJETA DE VIDEO AMD RADEON XFX RX 580 DDR5 OC GTS XXX 8 GIGAS</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/32383743986.html?spm=a2g0o.productlist.main.3.16beRPkgRPkgtR&amp;algo_pvid=53556797-3040-42e5-a204-5c0e4838082e&amp;algo_exp_id=53556797-3040-42e5-a204-5c0e4838082e-1&amp;pdp_npi=4%40dis%21COP%2119817.71%2119817.71%21%21%214.95%214.95%21%402101effb17146827534437199ef51d%2155989484887%21sea%21CO%210%21AB&amp;curPageLogUid=IBf5KPrRNy0E&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>Procesador Original Intel Core 2 Duo CPU E8400, 3,00 Ghz, 6M, 1333MHz, 775, envío en 1 día</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.co/procesador-amd-ryzen-7-5700g-100-100000263box-de-8-nucleos-y-46ghz-de-frecuencia-con-grafica-integrada/p/MCO18441624#searchVariation=MCO18441624&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=b740b41f-8c1f-4e72-bf41-3c26e53e50a7</t>
+  </si>
+  <si>
+    <t>Procesador AMD Ryzen 7 5700G 100-100000263BOX de 8 núcleos y 4.6GHz de frecuencia con gráfica integrada</t>
+  </si>
+  <si>
+    <t>https://speedlogic.com.co/tienda/procesadores/procesador-amd-ryzen-5-5600gt-36-6-cores-radeon-am4/</t>
+  </si>
+  <si>
+    <t>PROCESADOR AMD RYZEN 5-5600GT 3,6-6 CORES-RADEON AM4</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://lasus.com.co/es/microsoft-365-apps-licencia-anual-empresa-office-365-business#/2-duracion-12_meses</t>
+  </si>
+  <si>
+    <t>Paquete de aplicaciones Microsoft 365 para empresas</t>
+  </si>
+  <si>
+    <t>Bhuo Digital</t>
+  </si>
+  <si>
+    <t>https://buhodigitalcol.com/microsoft-office-365-home/</t>
+  </si>
+  <si>
+    <t>Office 365 – Home And Bussines</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/-/es/Microsoft-Suscripci%C3%B3n-Aplicaciones-Almacenamiento-activaci%C3%B3n/dp/B07F3TQ6DQ/ref=sr_1_2?adgrpid=136868216086&amp;dib=eyJ2IjoiMSJ9.d2JuvvvvEw-ajE54ssJo0oCoTbKKqjkJk1bdCo1zg5fa-QGNgKaDqCkre5m63YpVqbdeoqRHHLac4Ccl2FIZaci4_TIElC48TVjne9SfhFDMJes4N7TxKfDMpXEherEf1SCm4vVnHjVqG8c4DwDY1dOMlbPddwnirjGskqjPvsrZUkJY9_kJiVu8kRD0ut2Rxr-aQD-XwWXTHKU7lTIDgp9Ry6nMKFvTBWNeyZOMhQk.hsquTlac9Bf4YyW0u23r_e66W5ZFN9fbKOuqUqW3KVY&amp;dib_tag=se&amp;hvadid=606341364630&amp;hvdev=c&amp;hvlocphy=1003659&amp;hvnetw=g&amp;hvqmt=b&amp;hvrand=8352071683182735229&amp;hvtargid=kwd-1458572506983&amp;hydadcr=10917_13536622&amp;keywords=licencia%2Bmicrosoft%2Boffice%2B365%2Bde%2Bpor%2Bvida&amp;qid=1714685668&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Personal | Suscripción de 12 meses, 1 persona| Aplicaciones de oficina premium | Almacenamiento en la nube OneDrive de 1 TB | Descarga de PC/Mac | Se requiere activación</t>
+  </si>
+  <si>
+    <t>Algoodkeys</t>
+  </si>
+  <si>
+    <t>https://allgoodkeys.com/es/producto/visual-studio-2022-enterprise/?utm_source=Google%20Shopping&amp;utm_campaign=Spanish%20Feed&amp;utm_medium=cpc&amp;utm_term=24440&amp;gad_source=1&amp;gclid=EAIaIQobChMIqqOR7_TvhQMVT5paBR3ZkAfIEAQYAyABEgJogvD_BwE</t>
+  </si>
+  <si>
+    <t>Visual Studio 2022 Enterprise – Licencia de Microsof</t>
+  </si>
+  <si>
+    <t>Keyvoo</t>
+  </si>
+  <si>
+    <t>https://keyvoo.com/es/buy-microsoft-visual-studio-2022-professional-cd-key-global?currency=USD</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio 2022 Professional Cd Key Global</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/es-co/d/visual-studio-professional-2022/DG7GMGF0D3SJ/0002?OCID=AIDcmm6mu07qw1_seo_omc_goo&amp;source=googleshopping</t>
+  </si>
+  <si>
+    <t>Visual Studio Professional 2022</t>
+  </si>
+  <si>
+    <t>ColombiaPC</t>
+  </si>
+  <si>
+    <t>https://colombiapc.com/product/windows-11-pro-licencia-original/?gad_source=1&amp;gclid=EAIaIQobChMImN63ofLvhQMV34FaBR1erg61EAQYASABEgJvWvD_BwE</t>
+  </si>
+  <si>
+    <t>Windows 11 Professional Serial de Activación</t>
+  </si>
+  <si>
+    <t>Microsoft Windows</t>
+  </si>
+  <si>
+    <t>https://systorecolombia.com/windows/849-microsoft-windows-11-profesional-a-64-bits-oem-fqc-10552.html</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 11 Profesional a 64 Bits Oem FQC-10552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccontado </t>
+  </si>
+  <si>
+    <t>https://systorecolombia.com/windows/942-microsoft-windows-11-profesional-ggk-kit-de-legalizacion-64-bits-oem-4yr-00229.html</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 11 Profesional GGK Kit de Legalización 64 Bits Oem 4YR-00229</t>
+  </si>
+  <si>
+    <t>Falabella</t>
+  </si>
+  <si>
+    <t>https://www.falabella.com.co/falabella-co/product/125455521/SQL-Server-2019-Standard-Edition/125455522</t>
+  </si>
+  <si>
+    <t>SQL Server 2019 Standard Edition</t>
+  </si>
+  <si>
+    <t>RevolutionSoft</t>
+  </si>
+  <si>
+    <t>https://revolutionsoft.com.co/microsoft-sql-server/sql-server-2019-standard.html?id_product_attribute=0&amp;srsltid=AfmBOooNDi7s0t0s7FeOTEZ_8MlBZFdndXO5YUizrv6IZywe_8CzAH8mDtM</t>
+  </si>
+  <si>
+    <t>Licencia Microsoft SQL Server 2019 Standard - 24 cores - Usuarios Ilimitados</t>
+  </si>
+  <si>
+    <t>GarciaComunicaciones</t>
+  </si>
+  <si>
+    <t>https://www.garciacomunicaciones.com/producto/cloud-computing-sql-server-standard-2-core-license-pack-3-year/?utm_source=Google%20Shopping&amp;utm_campaign=FeedGC&amp;utm_medium=cpc&amp;utm_term=14720</t>
+  </si>
+  <si>
+    <t>SQL Server Standard-2 CORE LICENSE PACK- 3 YEAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0&quot;€&quot;"/>
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -662,13 +965,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -678,13 +974,6 @@
       <sz val="10"/>
       <color rgb="FF231F20"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -719,20 +1008,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -749,17 +1024,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <i/>
@@ -810,8 +1074,20 @@
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +1128,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
         <bgColor rgb="FFF8F8F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -938,9 +1220,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,11 +1255,11 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -985,89 +1267,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1076,26 +1325,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,47 +1397,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1394,10 +1646,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -1405,15 +1657,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -1471,13 +1723,13 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="45">
         <v>1651700</v>
       </c>
       <c r="F8" s="10">
@@ -1503,20 +1755,20 @@
       <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="48">
         <v>1714000</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="67">
+      <c r="G9" s="42">
         <v>1714000</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="37">
         <v>1714000</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1531,10 +1783,10 @@
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="11">
@@ -1573,30 +1825,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -2610,7 +2862,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -2629,10 +2881,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -2640,15 +2892,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -2703,42 +2955,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="11">
+        <v>57250</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>10877.5</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>68127.5</v>
+      </c>
+      <c r="H8" s="10">
+        <v>68128</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>190000</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>1190000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1190000</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="11">
+        <v>985000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>187150</v>
+      </c>
+      <c r="G10" s="15">
+        <f>F10+E10</f>
+        <v>1172150</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1172150</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -2758,30 +3064,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -3780,6 +4086,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://es.aliexpress.com/item/1005006270659459.html?spm=a2g0o.productlist.main.5.4abeyOtDyOtD2s&amp;algo_pvid=1a04faee-5d21-4961-8aea-903a0f1ca756&amp;algo_exp_id=1a04faee-5d21-4961-8aea-903a0f1ca756-2&amp;pdp_npi=4%40dis%21COP%2177386.26%2157265.83%21%21%21140.00%21103.60%21%402103244417146805508891151ec7fe%2112000037690706833%21sea%21CO%210%21AB&amp;curPageLogUid=C8N0yhESKPP3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{23E3B768-CB92-4083-A3A7-E444926E90F4}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO24614130&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=9fc9efef-a1e7-4b40-99eb-1c531455781a&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=M2Y2ZDcwZDMtNDJkYy00NzI5LTg1Y2EtMDFjNjg2NWQyN2Y3" display="https://www.mercadolibre.com.co/monitor-samsung-qhd-de-27-con-panel-ips-y-diseno-ergonomico-color-negro-100v240v/p/MCO24614130?pdp_filters=item_id:MCO1327122527#is_advertising=true&amp;searchVariation=MCO24614130&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=9fc9efef-a1e7-4b40-99eb-1c531455781a&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=M2Y2ZDcwZDMtNDJkYy00NzI5LTg1Y2EtMDFjNjg2NWQyN2Y3" xr:uid="{337C5B7D-A518-47D0-BCF6-967E1AA980E2}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{FC6B4F42-79A3-4EC0-9CD5-E25401BB6E00}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3790,7 +4101,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -3806,17 +4117,17 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -3824,15 +4135,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -3887,42 +4198,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="22"/>
+      <c r="B8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="27">
+        <v>58900</v>
+      </c>
+      <c r="F8" s="22">
+        <f>E8*19%</f>
+        <v>11191</v>
+      </c>
+      <c r="G8" s="23">
+        <f>F8+E8</f>
+        <v>70091</v>
+      </c>
+      <c r="H8" s="22">
+        <v>70091</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="22"/>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="26">
+        <v>57400</v>
+      </c>
+      <c r="F9" s="22">
+        <f>E9*19%</f>
+        <v>10906</v>
+      </c>
+      <c r="G9" s="23">
+        <f>F9+E9</f>
+        <v>68306</v>
+      </c>
+      <c r="H9" s="22">
+        <v>68306</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="26">
+        <v>176000</v>
+      </c>
+      <c r="F10" s="22">
+        <f>E10*19%</f>
+        <v>33440</v>
+      </c>
+      <c r="G10" s="23">
+        <f>F10+E10</f>
+        <v>209440</v>
+      </c>
+      <c r="H10" s="22">
+        <v>209440</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -3942,30 +4307,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -4964,6 +5329,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://es.aliexpress.com/item/1005002655221070.html?spm=a2g0o.productlist.main.1.5b6e7a9edYE1Da&amp;algo_pvid=ba95e61b-d2d7-4b32-b6d3-a80b6b87d2c2&amp;algo_exp_id=ba95e61b-d2d7-4b32-b6d3-a80b6b87d2c2-0&amp;pdp_npi=4%40dis%21COP%2188038.67%2158091.91%21%21%2121.99%2114.51%21%402101e64117146811555243039eeaed%2112000021576677780%21sea%21CO%210%21AB&amp;curPageLogUid=zMCC0Kv8TyME&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{367AE88A-EB13-430A-9456-E4860EBE6EED}"/>
+    <hyperlink ref="C9" r:id="rId2" location="searchVariation=MCO21709406&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b92dc17d-36e0-44ff-bf3b-3e1c6e879eb4" xr:uid="{624DC0A5-7322-4EA2-BC34-F44831CADDF9}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{1532995C-542D-4D72-A530-56AA2D4080B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4974,7 +5344,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -4993,10 +5363,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -5004,15 +5374,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -5067,42 +5437,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="11">
+        <v>115000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>21850</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>136850</v>
+      </c>
+      <c r="H8" s="10">
+        <v>136850</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50300</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>9557</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>59857</v>
+      </c>
+      <c r="H9" s="10">
+        <v>59857</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="11">
+        <v>185000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>35150</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>220150</v>
+      </c>
+      <c r="H10" s="10">
+        <v>220150</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -5122,30 +5546,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -6144,16 +6568,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://es.aliexpress.com/item/1005005745436996.html?spm=a2g0o.productlist.main.23.7439568eya0FDG&amp;algo_pvid=b0a3c163-e82f-46a4-898c-59226f84949e&amp;aem_p4p_detail=202405021327293384211032943000012567548&amp;algo_exp_id=b0a3c163-e82f-46a4-898c-59226f84949e-11&amp;pdp_npi=4%40dis%21COP%21303951.61%21115503.21%21%21%2175.92%2128.85%21%402101c59117146816493924134eb60a%2112000034195319475%21sea%21CO%210%21AB&amp;curPageLogUid=AP32FBQwXIfp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202405021327293384211032943000012567548_3" xr:uid="{AF480D4C-5E7B-4896-B30C-6E664B8F8B47}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO14924731&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=8c0538f9-6d6e-4d38-8ee7-499c98d59318&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZjJhNTE0MTgtOGE0MC00NmZmLTkwZjQtNjljZWQ0OTEwM2Vl" display="https://www.mercadolibre.com.co/memoria-ram-samsung-8gb-ddr3-1600mhz-portatil-laptop/p/MCO14924731?pdp_filters=item_id:MCO1541573376#is_advertising=true&amp;searchVariation=MCO14924731&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=8c0538f9-6d6e-4d38-8ee7-499c98d59318&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZjJhNTE0MTgtOGE0MC00NmZmLTkwZjQtNjljZWQ0OTEwM2Vl" xr:uid="{96D2897E-D83F-4CDF-AF5B-8563E99DDC4B}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{8ABA7379-4F02-48FB-9021-7614E36649FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6164,7 +6583,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -6183,10 +6602,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -6194,15 +6613,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -6257,42 +6676,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="11">
+        <v>17295455</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>3286136.45</v>
+      </c>
+      <c r="G8" s="11">
+        <f>E8+F8</f>
+        <v>20581591.449999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>20581591</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="27">
+        <v>3850000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>731500</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>4581500</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4581500</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1409000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>267710</v>
+      </c>
+      <c r="G10" s="15">
+        <f>F10+E10</f>
+        <v>1676710</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1676710</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -6312,30 +6785,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -7334,6 +7807,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://es.aliexpress.com/item/1005004542103749.html?spm=a2g0o.productlist.main.1.3b5e37a1zvbLIJ&amp;algo_pvid=fb8ab4ec-6aa6-470d-8ef3-f25cffed1af4&amp;algo_exp_id=fb8ab4ec-6aa6-470d-8ef3-f25cffed1af4-0&amp;pdp_npi=4%40dis%21COP%2121619319.04%2117295455.23%21%21%215400.00%214320.00%21%402103246417146819683818498e3652%2112000029540850579%21sea%21CO%210%21AB&amp;curPageLogUid=je6gsl7zIwXo&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{A8C58CE9-0233-4A53-82F6-0B454FBA53E0}"/>
+    <hyperlink ref="C9" r:id="rId2" location="position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=2fcd95e5-7bc6-454e-83da-441a7ebcca14" xr:uid="{3B06A171-A369-4C3B-A566-ABD861DADA0E}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{EE8CA2CF-F60F-4356-9CBB-7010B46A8D34}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -7344,7 +7822,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -7363,10 +7841,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -7374,15 +7852,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -7437,28 +7915,64 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="11">
+        <v>85956</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>16331.64</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>102287.64</v>
+      </c>
+      <c r="H8" s="10">
+        <v>102288</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="11">
+        <v>6328900</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>1202491</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>7531391</v>
+      </c>
+      <c r="H9" s="10">
+        <v>7531391</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="L9">
         <f>570+600+300+1000</f>
@@ -7469,14 +7983,32 @@
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="11">
+        <v>798000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>151620</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>949620</v>
+      </c>
+      <c r="H10" s="10">
+        <v>949620</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="L10">
         <v>4100000</v>
@@ -7499,30 +8031,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -8521,6 +9053,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://es.aliexpress.com/item/1005005920833284.html?spm=a2g0o.productlist.main.1.5c472aa9aLougx&amp;algo_pvid=6f2c0531-e7d4-4f85-ac66-7835dfc18826&amp;algo_exp_id=6f2c0531-e7d4-4f85-ac66-7835dfc18826-0&amp;pdp_npi=4%40dis%21COP%21145650.15%2185956.81%21%21%2136.38%2121.47%21%40210324f117146823773384497ef662%2112000034858120240%21sea%21CO%210%21AB&amp;curPageLogUid=kF3FTTw2dpq3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{94953507-A2FD-4B17-9A1E-CA11CCAAA548}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO16071004&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=b6d7a260-f3d5-4e83-b2f8-757816d9bfeb&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=YWRjODY5Y2ItZTQ2OS00MDZjLWJmOGItNjk4ZmRmNjUyOWRm" display="https://www.mercadolibre.com.co/tarjeta-de-video-nvidia-geforce-rtx-30-series-rtx-3090-24gb/p/MCO16071004?pdp_filters=item_id:MCO1336129151#is_advertising=true&amp;searchVariation=MCO16071004&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=b6d7a260-f3d5-4e83-b2f8-757816d9bfeb&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=YWRjODY5Y2ItZTQ2OS00MDZjLWJmOGItNjk4ZmRmNjUyOWRm" xr:uid="{A7C1E9BD-0609-46B3-A7F5-9255AEA345C1}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{FCE66FDD-EE0E-41B3-8C66-792FCBC97098}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -8531,7 +9068,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -8550,10 +9087,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -8561,15 +9098,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -8624,42 +9161,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="11">
+        <v>19800</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>3762</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>23562</v>
+      </c>
+      <c r="H8" s="10">
+        <v>23562</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="11">
+        <v>815550</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>154954.5</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>970504.5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>970505</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="11">
+        <v>710000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>134900</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>844900</v>
+      </c>
+      <c r="H10" s="10">
+        <v>844900</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -8679,30 +9270,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -9701,6 +10292,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://es.aliexpress.com/item/32383743986.html?spm=a2g0o.productlist.main.3.16beRPkgRPkgtR&amp;algo_pvid=53556797-3040-42e5-a204-5c0e4838082e&amp;algo_exp_id=53556797-3040-42e5-a204-5c0e4838082e-1&amp;pdp_npi=4%40dis%21COP%2119817.71%2119817.71%21%21%214.95%214.95%21%402101effb17146827534437199ef51d%2155989484887%21sea%21CO%210%21AB&amp;curPageLogUid=IBf5KPrRNy0E&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{34F46ABF-72E7-4FF8-A31D-0A175ABCB025}"/>
+    <hyperlink ref="C9" r:id="rId2" location="searchVariation=MCO18441624&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=b740b41f-8c1f-4e72-bf41-3c26e53e50a7" display="https://www.mercadolibre.com.co/procesador-amd-ryzen-7-5700g-100-100000263box-de-8-nucleos-y-46ghz-de-frecuencia-con-grafica-integrada/p/MCO18441624#searchVariation=MCO18441624&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=b740b41f-8c1f-4e72-bf41-3c26e53e50a7" xr:uid="{73E951A4-25F7-4295-8886-F89CCD35F682}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{293F3C87-7960-48D5-99CE-C45F236A8151}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -9711,7 +10307,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -9730,10 +10326,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -9741,15 +10337,15 @@
       <c r="A5" s="61">
         <v>0</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -9804,42 +10400,98 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="11">
+        <v>259000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>49210</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>308210</v>
+      </c>
+      <c r="H8" s="10">
+        <v>308210</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="11">
+        <v>90000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>17100</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>107100</v>
+      </c>
+      <c r="H9" s="10">
+        <v>107100</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" ref="D10" si="0">D9</f>
+        <v>Teclado Mecánico Gamer Unitec Mk20 Retroiluminado Color del teclado Plateado</v>
+      </c>
+      <c r="E10" s="11">
+        <v>549900</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>104481</v>
+      </c>
+      <c r="G10" s="15">
+        <f>E10+F10</f>
+        <v>654381</v>
+      </c>
+      <c r="H10" s="10">
+        <f>G10</f>
+        <v>654381</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -9859,30 +10511,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -10881,6 +11533,10 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{A498323B-D1F5-4EC8-80E0-F1F1A43A4B27}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO23026811&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=c80e825b-739a-462e-be88-04f51edfa8ed&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=MjM4OGRjYjUtZTAyYy00NmEyLWJmNDgtM2RjNTI1YjE5ZDFk" display="https://www.mercadolibre.com.co/teclado-mecanico-gamer-unitec-mk20-retroiluminado-color-del-teclado-plateado/p/MCO23026811?pdp_filters=item_id:MCO1366192149#is_advertising=true&amp;searchVariation=MCO23026811&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=c80e825b-739a-462e-be88-04f51edfa8ed&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=MjM4OGRjYjUtZTAyYy00NmEyLWJmNDgtM2RjNTI1YjE5ZDFk" xr:uid="{0C235930-F5A9-4F20-99BB-96A8D1BC7384}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -10891,7 +11547,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
+      <selection activeCell="B8" sqref="B8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -10906,18 +11562,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>64</v>
+      <c r="A1" s="32" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -10925,15 +11581,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -10956,7 +11612,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>9</v>
@@ -10988,42 +11644,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="11">
+        <v>23800</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>4522</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>28322</v>
+      </c>
+      <c r="H8" s="10">
+        <v>28322</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="11">
+        <v>26350</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>5006.5</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>31356.5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>31357</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="11">
+        <v>419000</v>
+      </c>
+      <c r="F10" s="29">
+        <f>E10*19%</f>
+        <v>79610</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>498610</v>
+      </c>
+      <c r="H10" s="10">
+        <v>498610</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -11043,30 +11753,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -12065,6 +12775,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://www.temu.com/search_result.html?search_key=mouse&amp;search_method=user&amp;refer_page_el_sn=200010&amp;srch_enter_source=top_search_entrance_10005&amp;_x_vst_scene=adg&amp;_x_ads_channel=google&amp;_x_ads_sub_channel=search&amp;_x_ads_account=1204871858&amp;_x_ads_set=21104778154&amp;_x_ads_id=161509618962&amp;_x_ads_creative_id=693748223408&amp;_x_ns_source=g&amp;_x_ns_gclid=EAIaIQobChMI59ay097vhQMVaaJaBR29rgP6EAAYASAAEgLpxfD_BwE&amp;_x_ns_placement=&amp;_x_ns_match_type=e&amp;_x_ns_ad_position=&amp;_x_ns_product_id=&amp;_x_ns_target=&amp;_x_ns_devicemodel=&amp;_x_ns_wbraid=Cj8KCQjw0MexBhDJARIuACLh4fQXWrTFHlFHqhyx6o7yj2g9RDsRWxG8mOvNdUUcI1B0zZtBdn6Q6tV-jRoCd78&amp;_x_ns_gbraid=0AAAAAo4mICFS4MFJBJKGHBi7R2nVgkWW5&amp;_x_ns_keyword=temu&amp;_x_ns_targetid=kwd-4583699489&amp;_x_ns_extensionid=&amp;refer_page_name=home&amp;refer_page_id=10005_1714679444922_2z9u4p9rtp&amp;refer_page_sn=10005&amp;_x_sessn_id=6kux8a4x4m&amp;is_back=1" xr:uid="{5F72D876-1357-4C78-A099-0E3B4EE90503}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO22909078&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=2348467c-10f9-4ea0-9fe4-4b55812071a0&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZDdhYzYwNGQtYzgwOS00ZmE4LTg3YWUtZmM4NjI3OTFjZTZj" display="https://www.mercadolibre.com.co/mouse-ergonomico-c-18-negro/p/MCO22909078?pdp_filters=item_id:MCO1343370259#is_advertising=true&amp;searchVariation=MCO22909078&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=2348467c-10f9-4ea0-9fe4-4b55812071a0&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZDdhYzYwNGQtYzgwOS00ZmE4LTg3YWUtZmM4NjI3OTFjZTZj" xr:uid="{FE3A8561-CE5B-4010-ABF8-FD4AEA284582}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{EE1BD8E0-DB16-408B-8543-76335B6F0381}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -12075,7 +12790,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -12096,10 +12811,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -12107,15 +12822,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -12170,46 +12885,97 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="11">
+        <v>372972</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>70864.680000000008</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>443836.68</v>
+      </c>
+      <c r="H8" s="10">
+        <v>443837</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="11">
+        <v>89900</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>17081</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>106981</v>
+      </c>
+      <c r="H9" s="10">
+        <v>106981</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <f>J9</f>
-        <v>0</v>
-      </c>
+      <c r="B10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="11">
+        <v>268927</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>51096.13</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>320023.13</v>
+      </c>
+      <c r="H10" s="10">
+        <v>320023</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="16"/>
@@ -12233,30 +12999,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -13255,6 +14021,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" location="/2-duracion-12_meses" xr:uid="{1799BBD7-212C-4207-A69C-187A2249E76F}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{1F390BE1-B5DF-49F0-98C4-6D5901E8FB0A}"/>
+    <hyperlink ref="C10" r:id="rId3" display="https://www.amazon.com/-/es/Microsoft-Suscripci%C3%B3n-Aplicaciones-Almacenamiento-activaci%C3%B3n/dp/B07F3TQ6DQ/ref=sr_1_2?adgrpid=136868216086&amp;dib=eyJ2IjoiMSJ9.d2JuvvvvEw-ajE54ssJo0oCoTbKKqjkJk1bdCo1zg5fa-QGNgKaDqCkre5m63YpVqbdeoqRHHLac4Ccl2FIZaci4_TIElC48TVjne9SfhFDMJes4N7TxKfDMpXEherEf1SCm4vVnHjVqG8c4DwDY1dOMlbPddwnirjGskqjPvsrZUkJY9_kJiVu8kRD0ut2Rxr-aQD-XwWXTHKU7lTIDgp9Ry6nMKFvTBWNeyZOMhQk.hsquTlac9Bf4YyW0u23r_e66W5ZFN9fbKOuqUqW3KVY&amp;dib_tag=se&amp;hvadid=606341364630&amp;hvdev=c&amp;hvlocphy=1003659&amp;hvnetw=g&amp;hvqmt=b&amp;hvrand=8352071683182735229&amp;hvtargid=kwd-1458572506983&amp;hydadcr=10917_13536622&amp;keywords=licencia%2Bmicrosoft%2Boffice%2B365%2Bde%2Bpor%2Bvida&amp;qid=1714685668&amp;sr=8-2&amp;th=1" xr:uid="{DCA53C7F-EB9D-4B66-A75C-2B648F1C3E60}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -13265,7 +14036,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -13286,10 +14057,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -13297,15 +14068,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -13360,46 +14131,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="11">
+        <v>360000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>68400</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>428400</v>
+      </c>
+      <c r="H8" s="10">
+        <v>428400</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="11">
+        <v>8500</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>1615</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>10115</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10115</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <f>J9</f>
-        <v>0</v>
-      </c>
+      <c r="B10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="57">
+        <v>2099000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>398810</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2497810</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2497810</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="16"/>
@@ -13418,30 +14239,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -14440,6 +15261,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{31A393DD-FA0B-4354-AD4B-B2549DD2952D}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{EF6ACC51-5EE2-443B-8DBF-498DD5FDADD0}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{BFDE7116-241C-4DFC-9A98-C6BD1C3A7E9A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -14469,10 +15295,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -14480,15 +15306,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -14543,7 +15369,7 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -14576,16 +15402,16 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="42">
         <v>542900</v>
       </c>
       <c r="F9" s="10">
@@ -14608,13 +15434,13 @@
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="39" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="11">
@@ -14653,30 +15479,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -15690,7 +16516,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -15711,10 +16537,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -15722,15 +16548,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -15785,42 +16611,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="11">
+        <v>43000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>8170</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>51170</v>
+      </c>
+      <c r="H8" s="10">
+        <v>51170</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="11">
+        <v>550000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>104500</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>654500</v>
+      </c>
+      <c r="H9" s="10">
+        <v>654500</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="11">
+        <v>640000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>121600</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>761600</v>
+      </c>
+      <c r="H10" s="10">
+        <v>761600</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -15840,30 +16720,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -16862,6 +17742,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{1596A749-A858-4407-82DC-A74D75BE5E1F}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{86FC6005-C5F6-4F88-9012-E7A936046FC9}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{DAA8F51E-C027-4E39-A67B-8AE60B9939D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -16871,8 +17756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -16893,10 +17778,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -16904,15 +17789,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -16967,42 +17852,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3990000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>758100</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>4748100</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4748100</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1545000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>293550</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>1838550</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1838550</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="11">
+        <v>26700100</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>5073019</v>
+      </c>
+      <c r="G10" s="63">
+        <f>F10+E10</f>
+        <v>31773119</v>
+      </c>
+      <c r="H10" s="10">
+        <v>31773119</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -17022,30 +17961,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -18044,6 +18983,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{68CB5F27-8C4E-49DE-A630-E0269F895688}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{DC96DB09-C02B-4AEE-9AA4-079A64C6B679}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{5FC6FBBE-490B-4173-98FF-29817DD82AC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -18073,10 +19017,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -18084,15 +19028,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -18147,16 +19091,16 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="42">
         <v>97900</v>
       </c>
       <c r="F8" s="10">
@@ -18179,10 +19123,10 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -18211,7 +19155,7 @@
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -18258,30 +19202,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -19293,8 +20237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -19313,10 +20257,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -19324,15 +20268,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -19387,30 +20331,30 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>108000</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <f>E8*19%</f>
         <v>20520</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="23">
         <f>F8+E8</f>
         <v>128520</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <v>128520</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="J8" s="8"/>
@@ -19419,46 +20363,64 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="22"/>
+      <c r="B9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1180000</v>
+      </c>
+      <c r="F9" s="22">
+        <f>E9*19%</f>
+        <v>224200</v>
+      </c>
+      <c r="G9" s="23">
+        <f>F9+E9</f>
+        <v>1404200</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1404200</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="B10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="20" t="str">
         <f t="shared" ref="D9:D10" si="0">D9</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="29">
+        <v>Disco Duro PC Western Digital 10TB Purple Pro (DVR)</v>
+      </c>
+      <c r="E10" s="26">
         <v>220000</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <f t="shared" ref="F10:H10" si="1">E10</f>
         <v>220000</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="23">
         <f t="shared" si="1"/>
         <v>220000</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <f t="shared" si="1"/>
         <v>220000</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="17"/>
@@ -19480,30 +20442,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -20504,6 +21466,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" location="searchVariation=MCO17439273&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=0fc841a4-5d0d-4678-a663-d94e3aa0734f" xr:uid="{8B91A753-AB0D-45D6-B2FD-F17D00644523}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{9AE95562-CC66-44CC-AFCB-77676E28C2E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -20534,10 +21497,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -20545,15 +21508,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -20609,13 +21572,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11">
         <v>8400000</v>
@@ -20641,19 +21604,19 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="49">
+      <c r="B9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="36">
         <v>10384323</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="37">
         <f>E9*19%</f>
         <v>1973021.37</v>
       </c>
@@ -20673,14 +21636,14 @@
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>56</v>
+      <c r="C10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="E10" s="11">
         <v>18671306</v>
@@ -20718,30 +21681,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -21755,7 +22718,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -21774,10 +22737,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -21785,15 +22748,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -21849,13 +22812,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="8">
         <v>399000</v>
@@ -21881,28 +22844,64 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="10">
+        <v>164900</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>31331</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>196231</v>
+      </c>
+      <c r="H9" s="10">
+        <v>196231</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="11">
+        <v>125000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>23750</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>148750</v>
+      </c>
+      <c r="H10" s="10">
+        <v>148750</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -21922,30 +22921,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -22954,6 +23953,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" location="searchVariation=MCO11903925&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=86b0cae9-af6e-49a0-bd5c-7b0ea4866441" display="https://www.mercadolibre.com.co/memoria-ram-gamer-portatil-ddr4-2666mhz-color-verde-16gb-crucial-ct16g4sfd8266/p/MCO11903925?pdp_filters=category:MCO1694#searchVariation=MCO11903925&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=86b0cae9-af6e-49a0-bd5c-7b0ea4866441" xr:uid="{7C195160-A1CD-44C3-AD18-0F75CC5AB1A6}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{666D76DE-919A-4C6B-8865-8FFC9B62C29E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -22964,7 +23967,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J9"/>
+      <selection activeCell="B9" sqref="B9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -22983,10 +23986,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -22994,15 +23997,15 @@
       <c r="A5" s="61">
         <v>0</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -23057,28 +24060,64 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="11">
+        <v>259000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>49210</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>308210</v>
+      </c>
+      <c r="H8" s="10">
+        <v>308210</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="11">
+        <v>90000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>17100</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>107100</v>
+      </c>
+      <c r="H9" s="10">
+        <v>107100</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
@@ -23086,14 +24125,14 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="8">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8" t="str">
         <f t="shared" ref="D9:D10" si="0">D9</f>
-        <v>0</v>
+        <v>Teclado Mecánico Gamer Unitec Mk20 Retroiluminado Color del teclado Plateado</v>
       </c>
       <c r="E10" s="11">
         <v>549900</v>
@@ -23135,30 +24174,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -24157,6 +25196,10 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{43BF2BC5-8EFE-43E6-9CE4-B44A1089290D}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO23026811&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=c80e825b-739a-462e-be88-04f51edfa8ed&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=MjM4OGRjYjUtZTAyYy00NmEyLWJmNDgtM2RjNTI1YjE5ZDFk" display="https://www.mercadolibre.com.co/teclado-mecanico-gamer-unitec-mk20-retroiluminado-color-del-teclado-plateado/p/MCO23026811?pdp_filters=item_id:MCO1366192149#is_advertising=true&amp;searchVariation=MCO23026811&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=c80e825b-739a-462e-be88-04f51edfa8ed&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=MjM4OGRjYjUtZTAyYy00NmEyLWJmNDgtM2RjNTI1YjE5ZDFk" xr:uid="{48F95C99-0162-4E62-A1F9-507E5577050C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -24167,7 +25210,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
+      <selection activeCell="B8" sqref="B8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -24186,10 +25229,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -24197,15 +25240,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -24228,7 +25271,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>9</v>
@@ -24260,42 +25303,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="11">
+        <v>23800</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>4522</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>28322</v>
+      </c>
+      <c r="H8" s="10">
+        <v>28322</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="11">
+        <v>26350</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>5006.5</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>31356.5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>31357</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="11">
+        <v>419000</v>
+      </c>
+      <c r="F10" s="29">
+        <f>E10*19%</f>
+        <v>79610</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10+E10</f>
+        <v>498610</v>
+      </c>
+      <c r="H10" s="10">
+        <v>498610</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -24315,30 +25412,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -25337,6 +26434,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://www.temu.com/search_result.html?search_key=mouse&amp;search_method=user&amp;refer_page_el_sn=200010&amp;srch_enter_source=top_search_entrance_10005&amp;_x_vst_scene=adg&amp;_x_ads_channel=google&amp;_x_ads_sub_channel=search&amp;_x_ads_account=1204871858&amp;_x_ads_set=21104778154&amp;_x_ads_id=161509618962&amp;_x_ads_creative_id=693748223408&amp;_x_ns_source=g&amp;_x_ns_gclid=EAIaIQobChMI59ay097vhQMVaaJaBR29rgP6EAAYASAAEgLpxfD_BwE&amp;_x_ns_placement=&amp;_x_ns_match_type=e&amp;_x_ns_ad_position=&amp;_x_ns_product_id=&amp;_x_ns_target=&amp;_x_ns_devicemodel=&amp;_x_ns_wbraid=Cj8KCQjw0MexBhDJARIuACLh4fQXWrTFHlFHqhyx6o7yj2g9RDsRWxG8mOvNdUUcI1B0zZtBdn6Q6tV-jRoCd78&amp;_x_ns_gbraid=0AAAAAo4mICFS4MFJBJKGHBi7R2nVgkWW5&amp;_x_ns_keyword=temu&amp;_x_ns_targetid=kwd-4583699489&amp;_x_ns_extensionid=&amp;refer_page_name=home&amp;refer_page_id=10005_1714679444922_2z9u4p9rtp&amp;refer_page_sn=10005&amp;_x_sessn_id=6kux8a4x4m&amp;is_back=1" xr:uid="{9134021F-E74F-4D5B-8CFC-BF4F18882D8C}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO22909078&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=2348467c-10f9-4ea0-9fe4-4b55812071a0&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZDdhYzYwNGQtYzgwOS00ZmE4LTg3YWUtZmM4NjI3OTFjZTZj" display="https://www.mercadolibre.com.co/mouse-ergonomico-c-18-negro/p/MCO22909078?pdp_filters=item_id:MCO1343370259#is_advertising=true&amp;searchVariation=MCO22909078&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=2348467c-10f9-4ea0-9fe4-4b55812071a0&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=ZDdhYzYwNGQtYzgwOS00ZmE4LTg3YWUtZmM4NjI3OTFjZTZj" xr:uid="{A1758E94-4568-429A-BCBE-48C2FD40ED2F}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{5916FADD-A24F-4101-A50F-E7054F58D0D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -25347,7 +26449,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -25366,10 +26468,10 @@
       <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
@@ -25377,15 +26479,15 @@
       <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -25440,42 +26542,96 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2056000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*19%</f>
+        <v>390640</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8+E8</f>
+        <v>2446640</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2446640</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*19%</f>
+        <v>364800</v>
+      </c>
+      <c r="G9" s="11">
+        <f>F9+E9</f>
+        <v>2284800</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2284800</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11">
+        <v>11530000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*19%</f>
+        <v>2190700</v>
+      </c>
+      <c r="G10" s="15">
+        <f>F10+E10</f>
+        <v>13720700</v>
+      </c>
+      <c r="H10" s="10">
+        <v>13720700</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -25495,30 +26651,30 @@
       <c r="A13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -26517,6 +27673,11 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://es.aliexpress.com/item/1005006849439730.html?spm=a2g0o.productlist.main.19.6cd255c5ki2Alu&amp;algo_pvid=f8cce292-11c9-4d21-aa74-d8b434ef7042&amp;algo_exp_id=f8cce292-11c9-4d21-aa74-d8b434ef7042-9&amp;pdp_npi=4%40dis%21COP%214144543.57%212056237.46%21%21%211035.21%21513.60%21%402101c72a17146801201485387e9693%2112000038524345996%21sea%21CO%210%21AB&amp;curPageLogUid=TNn8u2kIwobx&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{47A1B15F-9D41-4254-A573-5DF8357F4E80}"/>
+    <hyperlink ref="C9" r:id="rId2" location="is_advertising=true&amp;searchVariation=MCO21628988&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=8ed7d3af-78f5-4bd3-9fe4-63251c8b1e62&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=NDM3MDkwOTUtZmY1OC00ZjgyLTg1YzMtNDE5MjQ4MjQxMDk5" display="https://www.mercadolibre.com.co/portatil-asus-vivobook-x1502za-i5-12gen-16gb-512ssd-156-fhd/p/MCO21628988?pdp_filters=item_id:MCO1288170272#is_advertising=true&amp;searchVariation=MCO21628988&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=8ed7d3af-78f5-4bd3-9fe4-63251c8b1e62&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=NDM3MDkwOTUtZmY1OC00ZjgyLTg1YzMtNDE5MjQ4MjQxMDk5" xr:uid="{DE984E55-1D3C-4C11-B90F-2141709D8726}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{49C60F21-7788-4827-A128-8B292FE2CD84}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
